--- a/Code/Results/Cases/Case_0_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_81/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1429458487853594</v>
+        <v>0.04870513615401251</v>
       </c>
       <c r="D2">
-        <v>0.1713825981119754</v>
+        <v>0.179318368419942</v>
       </c>
       <c r="E2">
-        <v>0.1637436707869711</v>
+        <v>0.1637399210225325</v>
       </c>
       <c r="F2">
-        <v>0.9684190931496772</v>
+        <v>1.496597299282612</v>
       </c>
       <c r="G2">
-        <v>0.0007929779982086759</v>
+        <v>0.002457148500969595</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1955848695512401</v>
+        <v>0.1897977685385754</v>
       </c>
       <c r="K2">
-        <v>3.639313308218505</v>
+        <v>1.445185142343121</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.798853227845278</v>
+        <v>1.194661019790658</v>
       </c>
       <c r="O2">
-        <v>2.213146545218365</v>
+        <v>3.642274077026741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1236095040544569</v>
+        <v>0.04327683841606245</v>
       </c>
       <c r="D3">
-        <v>0.152406344887865</v>
+        <v>0.1748351904357719</v>
       </c>
       <c r="E3">
-        <v>0.1458263371719326</v>
+        <v>0.1599260690104245</v>
       </c>
       <c r="F3">
-        <v>0.8993001323118648</v>
+        <v>1.492582903046312</v>
       </c>
       <c r="G3">
-        <v>0.0007980178808416432</v>
+        <v>0.002460491392391409</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1742875886486459</v>
+        <v>0.1855785131881618</v>
       </c>
       <c r="K3">
-        <v>3.161019226289113</v>
+        <v>1.304952777451831</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8085082304500517</v>
+        <v>1.200710615396503</v>
       </c>
       <c r="O3">
-        <v>2.076163441351099</v>
+        <v>3.643885872975886</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1118550309228254</v>
+        <v>0.03995888928245961</v>
       </c>
       <c r="D4">
-        <v>0.1408686955375771</v>
+        <v>0.1721467448533076</v>
       </c>
       <c r="E4">
-        <v>0.1350041849638934</v>
+        <v>0.1576655537974432</v>
       </c>
       <c r="F4">
-        <v>0.8589586025166511</v>
+        <v>1.491071690240759</v>
       </c>
       <c r="G4">
-        <v>0.0008012099580216595</v>
+        <v>0.002462653368624975</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1614916169331622</v>
+        <v>0.1831004043892364</v>
       </c>
       <c r="K4">
-        <v>2.868278730538435</v>
+        <v>1.218980614162859</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8154821705719542</v>
+        <v>1.204908205562653</v>
       </c>
       <c r="O4">
-        <v>1.997665803260531</v>
+        <v>3.64735405205542</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1070906472250357</v>
+        <v>0.03861055267469737</v>
       </c>
       <c r="D5">
-        <v>0.1361929944952891</v>
+        <v>0.17106741717609</v>
       </c>
       <c r="E5">
-        <v>0.1306351411718083</v>
+        <v>0.1567648159037276</v>
       </c>
       <c r="F5">
-        <v>0.8430105072645659</v>
+        <v>1.490695343703891</v>
       </c>
       <c r="G5">
-        <v>0.0008025358687110417</v>
+        <v>0.002463561992923302</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1563414993949763</v>
+        <v>0.1821188209089541</v>
       </c>
       <c r="K5">
-        <v>2.74916572014078</v>
+        <v>1.183980919902069</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8185777987111535</v>
+        <v>1.206740423388617</v>
       </c>
       <c r="O5">
-        <v>1.966993306929226</v>
+        <v>3.649389453026487</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1063009609159877</v>
+        <v>0.03838688833036485</v>
       </c>
       <c r="D6">
-        <v>0.13541809313881</v>
+        <v>0.1708891786311284</v>
       </c>
       <c r="E6">
-        <v>0.1299120335106423</v>
+        <v>0.1566164842341884</v>
       </c>
       <c r="F6">
-        <v>0.8403910020840044</v>
+        <v>1.490647306756941</v>
       </c>
       <c r="G6">
-        <v>0.0008027575683519104</v>
+        <v>0.002463714538999455</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1554900376339035</v>
+        <v>0.181957536028321</v>
       </c>
       <c r="K6">
-        <v>2.729396532448504</v>
+        <v>1.178171391041332</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8191068879283776</v>
+        <v>1.207052015588161</v>
       </c>
       <c r="O6">
-        <v>1.961976971119014</v>
+        <v>3.649764968775941</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1117906780592932</v>
+        <v>0.03994068997779721</v>
       </c>
       <c r="D7">
-        <v>0.1408055355623929</v>
+        <v>0.1721321228170183</v>
       </c>
       <c r="E7">
-        <v>0.1349451013043428</v>
+        <v>0.1576533233406394</v>
       </c>
       <c r="F7">
-        <v>0.8587415774298677</v>
+        <v>1.491065645457141</v>
       </c>
       <c r="G7">
-        <v>0.0008012277372131861</v>
+        <v>0.002462665510701647</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.161421908074054</v>
+        <v>0.1830870520036925</v>
       </c>
       <c r="K7">
-        <v>2.866671665899332</v>
+        <v>1.218508453448834</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8155229039246166</v>
+        <v>1.204932422629135</v>
       </c>
       <c r="O7">
-        <v>1.997246936497305</v>
+        <v>3.647378984912024</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1362516495242687</v>
+        <v>0.04683031671685001</v>
       </c>
       <c r="D8">
-        <v>0.1648143095850401</v>
+        <v>0.1777592816769271</v>
       </c>
       <c r="E8">
-        <v>0.1575261123453586</v>
+        <v>0.1624080614180414</v>
       </c>
       <c r="F8">
-        <v>0.944129066724301</v>
+        <v>1.495015010387107</v>
       </c>
       <c r="G8">
-        <v>0.0007946958579056404</v>
+        <v>0.002458278469449693</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1881794480232344</v>
+        <v>0.1883195929998038</v>
       </c>
       <c r="K8">
-        <v>3.474170029647325</v>
+        <v>1.396806791395818</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8019594701507344</v>
+        <v>1.196646756614882</v>
       </c>
       <c r="O8">
-        <v>2.164691407742197</v>
+        <v>3.642314697492452</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1853534280548104</v>
+        <v>0.06046225882805345</v>
       </c>
       <c r="D9">
-        <v>0.2129288277573806</v>
+        <v>0.1893010195657325</v>
       </c>
       <c r="E9">
-        <v>0.2034232927487238</v>
+        <v>0.1723761941183781</v>
       </c>
       <c r="F9">
-        <v>1.129966667264242</v>
+        <v>1.510343410554867</v>
       </c>
       <c r="G9">
-        <v>0.0007826330803960822</v>
+        <v>0.002450539864555716</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2431808244933649</v>
+        <v>0.1994756642249484</v>
       </c>
       <c r="K9">
-        <v>4.675555785731774</v>
+        <v>1.74743252759788</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7841076322798131</v>
+        <v>1.184224641912678</v>
       </c>
       <c r="O9">
-        <v>2.542155884414086</v>
+        <v>3.652107115553179</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2224161039896302</v>
+        <v>0.07055543272190334</v>
       </c>
       <c r="D10">
-        <v>0.2491065931553038</v>
+        <v>0.1980869757766044</v>
       </c>
       <c r="E10">
-        <v>0.2384229964857028</v>
+        <v>0.1800931631233453</v>
       </c>
       <c r="F10">
-        <v>1.280340198000161</v>
+        <v>1.526255843182099</v>
       </c>
       <c r="G10">
-        <v>0.0007741836632069877</v>
+        <v>0.002445375803482976</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2855904406925589</v>
+        <v>0.2082218760261014</v>
       </c>
       <c r="K10">
-        <v>5.568471642908605</v>
+        <v>2.005586776834832</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7769960583906226</v>
+        <v>1.177422002625036</v>
       </c>
       <c r="O10">
-        <v>2.856303572336429</v>
+        <v>3.671412697767209</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2395632146948259</v>
+        <v>0.07516483727422951</v>
       </c>
       <c r="D11">
-        <v>0.2657928910875995</v>
+        <v>0.2021499145936332</v>
       </c>
       <c r="E11">
-        <v>0.2546946841249778</v>
+        <v>0.1836894536793423</v>
       </c>
       <c r="F11">
-        <v>1.352393035293773</v>
+        <v>1.534510856840413</v>
       </c>
       <c r="G11">
-        <v>0.0007704194532000216</v>
+        <v>0.002443138614636537</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3054297512812809</v>
+        <v>0.2123211242833491</v>
       </c>
       <c r="K11">
-        <v>5.97792157789803</v>
+        <v>2.123138345310224</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7752280669035088</v>
+        <v>1.174830311703673</v>
       </c>
       <c r="O11">
-        <v>3.008890573719157</v>
+        <v>3.682844455713195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2461041580459238</v>
+        <v>0.07691292988793919</v>
       </c>
       <c r="D12">
-        <v>0.2721488093486784</v>
+        <v>0.2036978923513999</v>
       </c>
       <c r="E12">
-        <v>0.2609132028776813</v>
+        <v>0.1850636105569663</v>
       </c>
       <c r="F12">
-        <v>1.380260369763818</v>
+        <v>1.53778340021384</v>
       </c>
       <c r="G12">
-        <v>0.0007690045725237421</v>
+        <v>0.002442307462363735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3130312228616958</v>
+        <v>0.2138907935299414</v>
       </c>
       <c r="K12">
-        <v>6.133529515822602</v>
+        <v>2.167667412368644</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7747845064299383</v>
+        <v>1.173921089045521</v>
       </c>
       <c r="O12">
-        <v>3.068216584687036</v>
+        <v>3.687555809851801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2446932190771207</v>
+        <v>0.07653633030284368</v>
       </c>
       <c r="D13">
-        <v>0.2707782230164781</v>
+        <v>0.2033640895187858</v>
       </c>
       <c r="E13">
-        <v>0.2595712995236852</v>
+        <v>0.1847671136587223</v>
       </c>
       <c r="F13">
-        <v>1.374231755109619</v>
+        <v>1.537072075311258</v>
       </c>
       <c r="G13">
-        <v>0.0007693088382915881</v>
+        <v>0.002442485754520851</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3113899918525505</v>
+        <v>0.2135519639072783</v>
       </c>
       <c r="K13">
-        <v>6.09999022098782</v>
+        <v>2.158076650051271</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7748697345598856</v>
+        <v>1.174113697321687</v>
       </c>
       <c r="O13">
-        <v>3.055368391850408</v>
+        <v>3.686524106053042</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2401003472432848</v>
+        <v>0.07530860141834239</v>
       </c>
       <c r="D14">
-        <v>0.2663150253720659</v>
+        <v>0.2022770791191704</v>
       </c>
       <c r="E14">
-        <v>0.2552051084776608</v>
+        <v>0.1838022595932998</v>
       </c>
       <c r="F14">
-        <v>1.354673673010311</v>
+        <v>1.534777151618712</v>
       </c>
       <c r="G14">
-        <v>0.0007703028441338838</v>
+        <v>0.002443069914476536</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3060532890094976</v>
+        <v>0.2124499135219651</v>
       </c>
       <c r="K14">
-        <v>5.99071180720415</v>
+        <v>2.126801491484684</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7751869565286</v>
+        <v>1.174754063165636</v>
       </c>
       <c r="O14">
-        <v>3.013739480689679</v>
+        <v>3.68322438987957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2372934930259873</v>
+        <v>0.07455692288152704</v>
       </c>
       <c r="D15">
-        <v>0.2635861629536436</v>
+        <v>0.2016124795953118</v>
       </c>
       <c r="E15">
-        <v>0.2525382860068817</v>
+        <v>0.1832128624584541</v>
       </c>
       <c r="F15">
-        <v>1.342771449928108</v>
+        <v>1.53339054137659</v>
       </c>
       <c r="G15">
-        <v>0.0007709130470112307</v>
+        <v>0.002443429813699444</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3027962783504421</v>
+        <v>0.2117771394248251</v>
       </c>
       <c r="K15">
-        <v>5.923851112934585</v>
+        <v>2.107646432268439</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7754111538253312</v>
+        <v>1.175155704249917</v>
       </c>
       <c r="O15">
-        <v>2.988446489318136</v>
+        <v>3.681253059065767</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.221301813773124</v>
+        <v>0.07025456120760509</v>
       </c>
       <c r="D16">
-        <v>0.2480210660764897</v>
+        <v>0.1978227774235108</v>
       </c>
       <c r="E16">
-        <v>0.2373671863734401</v>
+        <v>0.1798598620487226</v>
       </c>
       <c r="F16">
-        <v>1.275709611827949</v>
+        <v>1.525736844387524</v>
       </c>
       <c r="G16">
-        <v>0.0007744311884459808</v>
+        <v>0.002445524255232034</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2843057445760735</v>
+        <v>0.2079564095442379</v>
       </c>
       <c r="K16">
-        <v>5.541786159725518</v>
+        <v>1.997906681192376</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7771423744381281</v>
+        <v>1.177601484469392</v>
       </c>
       <c r="O16">
-        <v>2.846539182768737</v>
+        <v>3.670719040228306</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2115693714060711</v>
+        <v>0.06761982339615713</v>
       </c>
       <c r="D17">
-        <v>0.2385339210456294</v>
+        <v>0.1955148045728521</v>
       </c>
       <c r="E17">
-        <v>0.2281542909022249</v>
+        <v>0.1778248676842296</v>
       </c>
       <c r="F17">
-        <v>1.23554319324866</v>
+        <v>1.521302146859981</v>
       </c>
       <c r="G17">
-        <v>0.0007766092022360883</v>
+        <v>0.002446837749477178</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2731094004333983</v>
+        <v>0.2056434185740983</v>
       </c>
       <c r="K17">
-        <v>5.30829733486064</v>
+        <v>1.9306132805022</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7785904504189745</v>
+        <v>1.179230601369113</v>
       </c>
       <c r="O17">
-        <v>2.762067343551365</v>
+        <v>3.664936364282852</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.205998137343741</v>
+        <v>0.06610608161648202</v>
       </c>
       <c r="D18">
-        <v>0.2330984298177299</v>
+        <v>0.1941935521841174</v>
       </c>
       <c r="E18">
-        <v>0.2228878172875923</v>
+        <v>0.1766624700003518</v>
       </c>
       <c r="F18">
-        <v>1.212780058690896</v>
+        <v>1.518847067690714</v>
       </c>
       <c r="G18">
-        <v>0.000777869475470879</v>
+        <v>0.002447603780085514</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2667203862956598</v>
+        <v>0.2043243920676474</v>
       </c>
       <c r="K18">
-        <v>5.174301558601769</v>
+        <v>1.891918914404073</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7795604684194046</v>
+        <v>1.180214964715461</v>
       </c>
       <c r="O18">
-        <v>2.714382569770351</v>
+        <v>3.66185962671193</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2041161965774876</v>
+        <v>0.06559384403955448</v>
       </c>
       <c r="D19">
-        <v>0.23126159378414</v>
+        <v>0.1937472718150985</v>
       </c>
       <c r="E19">
-        <v>0.2211100817099236</v>
+        <v>0.1762702899641013</v>
       </c>
       <c r="F19">
-        <v>1.205129479776048</v>
+        <v>1.518032234560494</v>
       </c>
       <c r="G19">
-        <v>0.0007782975026401174</v>
+        <v>0.002447864958307844</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2645656121137137</v>
+        <v>0.2038797396832308</v>
       </c>
       <c r="K19">
-        <v>5.128981960395208</v>
+        <v>1.87881961516041</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7799120145655962</v>
+        <v>1.180556387335116</v>
       </c>
       <c r="O19">
-        <v>2.698387667740832</v>
+        <v>3.660860672212749</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2126026077706626</v>
+        <v>0.06790012065762596</v>
       </c>
       <c r="D20">
-        <v>0.2395416133615385</v>
+        <v>0.1957598477823552</v>
       </c>
       <c r="E20">
-        <v>0.2291316067612001</v>
+        <v>0.1780406604795814</v>
       </c>
       <c r="F20">
-        <v>1.239783433003353</v>
+        <v>1.521764326570931</v>
       </c>
       <c r="G20">
-        <v>0.0007763765750815245</v>
+        <v>0.002446696835154287</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2742959396666151</v>
+        <v>0.2058884660050921</v>
       </c>
       <c r="K20">
-        <v>5.333120862258568</v>
+        <v>1.937775650824733</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7784220040132652</v>
+        <v>1.179052280614442</v>
       </c>
       <c r="O20">
-        <v>2.770965181120062</v>
+        <v>3.665526127819049</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2414480364559921</v>
+        <v>0.07566914407074421</v>
       </c>
       <c r="D21">
-        <v>0.2676249297623627</v>
+        <v>0.2025961051295013</v>
       </c>
       <c r="E21">
-        <v>0.2564859694057802</v>
+        <v>0.1840853264149587</v>
       </c>
       <c r="F21">
-        <v>1.36040205920807</v>
+        <v>1.53544724587411</v>
       </c>
       <c r="G21">
-        <v>0.0007700106017494186</v>
+        <v>0.002442897898260874</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3076183141479305</v>
+        <v>0.2127731406376228</v>
       </c>
       <c r="K21">
-        <v>6.022793622299162</v>
+        <v>2.135987375453908</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7750875232672314</v>
+        <v>1.174564013750171</v>
       </c>
       <c r="O21">
-        <v>3.025923695850054</v>
+        <v>3.684183207271701</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2605816360534874</v>
+        <v>0.08076188229091485</v>
       </c>
       <c r="D22">
-        <v>0.2861979703331912</v>
+        <v>0.2071189272864729</v>
       </c>
       <c r="E22">
-        <v>0.2746980161232386</v>
+        <v>0.1881076651864007</v>
       </c>
       <c r="F22">
-        <v>1.442659227218343</v>
+        <v>1.545244208908599</v>
       </c>
       <c r="G22">
-        <v>0.0007659110639155475</v>
+        <v>0.002440508430271089</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3299191104358954</v>
+        <v>0.2173739537052626</v>
       </c>
       <c r="K22">
-        <v>6.476835716202856</v>
+        <v>2.265615850196582</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7742330646263582</v>
+        <v>1.172051427655035</v>
       </c>
       <c r="O22">
-        <v>3.201637991201295</v>
+        <v>3.698606231249073</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2503416545770989</v>
+        <v>0.07804238934011209</v>
       </c>
       <c r="D23">
-        <v>0.2762636419627427</v>
+        <v>0.2047000130121432</v>
       </c>
       <c r="E23">
-        <v>0.2649450289137789</v>
+        <v>0.1859543036475273</v>
       </c>
       <c r="F23">
-        <v>1.398423013517316</v>
+        <v>1.539937077661065</v>
       </c>
       <c r="G23">
-        <v>0.0007680937950609914</v>
+        <v>0.002441775217948511</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3179653472985251</v>
+        <v>0.2149091335379865</v>
       </c>
       <c r="K23">
-        <v>6.234170990291716</v>
+        <v>2.196423457229344</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7745626052632133</v>
+        <v>1.173353979545382</v>
       </c>
       <c r="O23">
-        <v>3.106970692281095</v>
+        <v>3.690703926790434</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.212135407095289</v>
+        <v>0.06777339514232494</v>
       </c>
       <c r="D24">
-        <v>0.2390859774420022</v>
+        <v>0.1956490461991507</v>
       </c>
       <c r="E24">
-        <v>0.2286896688528373</v>
+        <v>0.1779430770464501</v>
       </c>
       <c r="F24">
-        <v>1.237865399941583</v>
+        <v>1.521555080824044</v>
       </c>
       <c r="G24">
-        <v>0.000776481720483562</v>
+        <v>0.002446760508549294</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2737593567927803</v>
+        <v>0.2057776466036358</v>
       </c>
       <c r="K24">
-        <v>5.321897404461936</v>
+        <v>1.93453756329103</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7784977314692867</v>
+        <v>1.179132750635944</v>
       </c>
       <c r="O24">
-        <v>2.766939741587237</v>
+        <v>3.665258723925149</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1719194554875969</v>
+        <v>0.0567610695408689</v>
       </c>
       <c r="D25">
-        <v>0.1997824282333198</v>
+        <v>0.1861246953917686</v>
       </c>
       <c r="E25">
-        <v>0.1908049419881266</v>
+        <v>0.1696105209711476</v>
       </c>
       <c r="F25">
-        <v>1.077464850973598</v>
+        <v>1.505381957283248</v>
       </c>
       <c r="G25">
-        <v>0.0007858206350014974</v>
+        <v>0.002452541391114899</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2279855854047383</v>
+        <v>0.1963613961133603</v>
       </c>
       <c r="K25">
-        <v>4.349065990870542</v>
+        <v>1.652478913770153</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7879345126914288</v>
+        <v>1.187176464855128</v>
       </c>
       <c r="O25">
-        <v>2.434106019458341</v>
+        <v>3.647337488133275</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_81/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04870513615401251</v>
+        <v>0.1429458487851178</v>
       </c>
       <c r="D2">
-        <v>0.179318368419942</v>
+        <v>0.1713825981120607</v>
       </c>
       <c r="E2">
-        <v>0.1637399210225325</v>
+        <v>0.1637436707869639</v>
       </c>
       <c r="F2">
-        <v>1.496597299282612</v>
+        <v>0.9684190931496772</v>
       </c>
       <c r="G2">
-        <v>0.002457148500969595</v>
+        <v>0.000792977998181518</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1897977685385754</v>
+        <v>0.1955848695512827</v>
       </c>
       <c r="K2">
-        <v>1.445185142343121</v>
+        <v>3.639313308218561</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.194661019790658</v>
+        <v>0.798853227845278</v>
       </c>
       <c r="O2">
-        <v>3.642274077026741</v>
+        <v>2.213146545218336</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04327683841606245</v>
+        <v>0.1236095040544569</v>
       </c>
       <c r="D3">
-        <v>0.1748351904357719</v>
+        <v>0.1524063448879929</v>
       </c>
       <c r="E3">
-        <v>0.1599260690104245</v>
+        <v>0.1458263371719326</v>
       </c>
       <c r="F3">
-        <v>1.492582903046312</v>
+        <v>0.8993001323118648</v>
       </c>
       <c r="G3">
-        <v>0.002460491392391409</v>
+        <v>0.0007980178808685265</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1855785131881618</v>
+        <v>0.1742875886486246</v>
       </c>
       <c r="K3">
-        <v>1.304952777451831</v>
+        <v>3.161019226289284</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.200710615396503</v>
+        <v>0.8085082304501015</v>
       </c>
       <c r="O3">
-        <v>3.643885872975886</v>
+        <v>2.076163441351099</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03995888928245961</v>
+        <v>0.1118550309228397</v>
       </c>
       <c r="D4">
-        <v>0.1721467448533076</v>
+        <v>0.1408686955377476</v>
       </c>
       <c r="E4">
-        <v>0.1576655537974432</v>
+        <v>0.1350041849638828</v>
       </c>
       <c r="F4">
-        <v>1.491071690240759</v>
+        <v>0.8589586025166511</v>
       </c>
       <c r="G4">
-        <v>0.002462653368624975</v>
+        <v>0.0008012099580249316</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1831004043892364</v>
+        <v>0.1614916169331977</v>
       </c>
       <c r="K4">
-        <v>1.218980614162859</v>
+        <v>2.868278730538407</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.204908205562653</v>
+        <v>0.8154821705719542</v>
       </c>
       <c r="O4">
-        <v>3.64735405205542</v>
+        <v>1.997665803260531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03861055267469737</v>
+        <v>0.1070906472250357</v>
       </c>
       <c r="D5">
-        <v>0.17106741717609</v>
+        <v>0.1361929944953886</v>
       </c>
       <c r="E5">
-        <v>0.1567648159037276</v>
+        <v>0.1306351411717941</v>
       </c>
       <c r="F5">
-        <v>1.490695343703891</v>
+        <v>0.8430105072645659</v>
       </c>
       <c r="G5">
-        <v>0.002463561992923302</v>
+        <v>0.0008025358687693198</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1821188209089541</v>
+        <v>0.1563414993949763</v>
       </c>
       <c r="K5">
-        <v>1.183980919902069</v>
+        <v>2.749165720140809</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.206740423388617</v>
+        <v>0.8185777987111535</v>
       </c>
       <c r="O5">
-        <v>3.649389453026487</v>
+        <v>1.966993306929226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03838688833036485</v>
+        <v>0.1063009609161298</v>
       </c>
       <c r="D6">
-        <v>0.1708891786311284</v>
+        <v>0.1354180931385969</v>
       </c>
       <c r="E6">
-        <v>0.1566164842341884</v>
+        <v>0.1299120335106565</v>
       </c>
       <c r="F6">
-        <v>1.490647306756941</v>
+        <v>0.8403910020840044</v>
       </c>
       <c r="G6">
-        <v>0.002463714538999455</v>
+        <v>0.0008027575683778763</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.181957536028321</v>
+        <v>0.155490037633875</v>
       </c>
       <c r="K6">
-        <v>1.178171391041332</v>
+        <v>2.729396532448419</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.207052015588161</v>
+        <v>0.8191068879283705</v>
       </c>
       <c r="O6">
-        <v>3.649764968775941</v>
+        <v>1.961976971119014</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03994068997779721</v>
+        <v>0.1117906780589379</v>
       </c>
       <c r="D7">
-        <v>0.1721321228170183</v>
+        <v>0.1408055355624498</v>
       </c>
       <c r="E7">
-        <v>0.1576533233406394</v>
+        <v>0.134945101304293</v>
       </c>
       <c r="F7">
-        <v>1.491065645457141</v>
+        <v>0.8587415774298535</v>
       </c>
       <c r="G7">
-        <v>0.002462665510701647</v>
+        <v>0.0008012277373229631</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1830870520036925</v>
+        <v>0.1614219080740824</v>
       </c>
       <c r="K7">
-        <v>1.218508453448834</v>
+        <v>2.866671665899275</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.204932422629135</v>
+        <v>0.8155229039245526</v>
       </c>
       <c r="O7">
-        <v>3.647378984912024</v>
+        <v>1.99724693649722</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04683031671685001</v>
+        <v>0.1362516495243824</v>
       </c>
       <c r="D8">
-        <v>0.1777592816769271</v>
+        <v>0.1648143095850401</v>
       </c>
       <c r="E8">
-        <v>0.1624080614180414</v>
+        <v>0.1575261123453515</v>
       </c>
       <c r="F8">
-        <v>1.495015010387107</v>
+        <v>0.9441290667243152</v>
       </c>
       <c r="G8">
-        <v>0.002458278469449693</v>
+        <v>0.0007946958578770383</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1883195929998038</v>
+        <v>0.1881794480231989</v>
       </c>
       <c r="K8">
-        <v>1.396806791395818</v>
+        <v>3.474170029647496</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.196646756614882</v>
+        <v>0.8019594701506705</v>
       </c>
       <c r="O8">
-        <v>3.642314697492452</v>
+        <v>2.164691407742254</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06046225882805345</v>
+        <v>0.1853534280548956</v>
       </c>
       <c r="D9">
-        <v>0.1893010195657325</v>
+        <v>0.2129288277572812</v>
       </c>
       <c r="E9">
-        <v>0.1723761941183781</v>
+        <v>0.2034232927487452</v>
       </c>
       <c r="F9">
-        <v>1.510343410554867</v>
+        <v>1.129966667264256</v>
       </c>
       <c r="G9">
-        <v>0.002450539864555716</v>
+        <v>0.0007826330803955621</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1994756642249484</v>
+        <v>0.2431808244933364</v>
       </c>
       <c r="K9">
-        <v>1.74743252759788</v>
+        <v>4.67555578573166</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.184224641912678</v>
+        <v>0.7841076322798131</v>
       </c>
       <c r="O9">
-        <v>3.652107115553179</v>
+        <v>2.542155884414086</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07055543272190334</v>
+        <v>0.2224161039897581</v>
       </c>
       <c r="D10">
-        <v>0.1980869757766044</v>
+        <v>0.2491065931553038</v>
       </c>
       <c r="E10">
-        <v>0.1800931631233453</v>
+        <v>0.2384229964857099</v>
       </c>
       <c r="F10">
-        <v>1.526255843182099</v>
+        <v>1.280340198000161</v>
       </c>
       <c r="G10">
-        <v>0.002445375803482976</v>
+        <v>0.0007741836632080006</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2082218760261014</v>
+        <v>0.2855904406925589</v>
       </c>
       <c r="K10">
-        <v>2.005586776834832</v>
+        <v>5.568471642908435</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.177422002625036</v>
+        <v>0.7769960583906226</v>
       </c>
       <c r="O10">
-        <v>3.671412697767209</v>
+        <v>2.856303572336401</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07516483727422951</v>
+        <v>0.239563214694968</v>
       </c>
       <c r="D11">
-        <v>0.2021499145936332</v>
+        <v>0.2657928910877558</v>
       </c>
       <c r="E11">
-        <v>0.1836894536793423</v>
+        <v>0.2546946841249778</v>
       </c>
       <c r="F11">
-        <v>1.534510856840413</v>
+        <v>1.352393035293801</v>
       </c>
       <c r="G11">
-        <v>0.002443138614636537</v>
+        <v>0.0007704194531938638</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2123211242833491</v>
+        <v>0.3054297512812667</v>
       </c>
       <c r="K11">
-        <v>2.123138345310224</v>
+        <v>5.977921577897973</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.174830311703673</v>
+        <v>0.7752280669035088</v>
       </c>
       <c r="O11">
-        <v>3.682844455713195</v>
+        <v>3.008890573719185</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07691292988793919</v>
+        <v>0.2461041580457959</v>
       </c>
       <c r="D12">
-        <v>0.2036978923513999</v>
+        <v>0.2721488093486073</v>
       </c>
       <c r="E12">
-        <v>0.1850636105569663</v>
+        <v>0.2609132028776884</v>
       </c>
       <c r="F12">
-        <v>1.53778340021384</v>
+        <v>1.380260369763818</v>
       </c>
       <c r="G12">
-        <v>0.002442307462363735</v>
+        <v>0.0007690045724891048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2138907935299414</v>
+        <v>0.3130312228615679</v>
       </c>
       <c r="K12">
-        <v>2.167667412368644</v>
+        <v>6.133529515822602</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.173921089045521</v>
+        <v>0.7747845064299383</v>
       </c>
       <c r="O12">
-        <v>3.687555809851801</v>
+        <v>3.068216584687065</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07653633030284368</v>
+        <v>0.2446932190771207</v>
       </c>
       <c r="D13">
-        <v>0.2033640895187858</v>
+        <v>0.2707782230164639</v>
       </c>
       <c r="E13">
-        <v>0.1847671136587223</v>
+        <v>0.2595712995236852</v>
       </c>
       <c r="F13">
-        <v>1.537072075311258</v>
+        <v>1.374231755109605</v>
       </c>
       <c r="G13">
-        <v>0.002442485754520851</v>
+        <v>0.00076930883828637</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2135519639072783</v>
+        <v>0.311389991852522</v>
       </c>
       <c r="K13">
-        <v>2.158076650051271</v>
+        <v>6.099990220987763</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.174113697321687</v>
+        <v>0.7748697345598998</v>
       </c>
       <c r="O13">
-        <v>3.686524106053042</v>
+        <v>3.055368391850436</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07530860141834239</v>
+        <v>0.2401003472432706</v>
       </c>
       <c r="D14">
-        <v>0.2022770791191704</v>
+        <v>0.2663150253719948</v>
       </c>
       <c r="E14">
-        <v>0.1838022595932998</v>
+        <v>0.255205108477675</v>
       </c>
       <c r="F14">
-        <v>1.534777151618712</v>
+        <v>1.354673673010325</v>
       </c>
       <c r="G14">
-        <v>0.002443069914476536</v>
+        <v>0.0007703028440663173</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2124499135219651</v>
+        <v>0.3060532890095544</v>
       </c>
       <c r="K14">
-        <v>2.126801491484684</v>
+        <v>5.990711807204264</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.174754063165636</v>
+        <v>0.775186956528529</v>
       </c>
       <c r="O14">
-        <v>3.68322438987957</v>
+        <v>3.013739480689679</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07455692288152704</v>
+        <v>0.2372934930260158</v>
       </c>
       <c r="D15">
-        <v>0.2016124795953118</v>
+        <v>0.2635861629536578</v>
       </c>
       <c r="E15">
-        <v>0.1832128624584541</v>
+        <v>0.2525382860068603</v>
       </c>
       <c r="F15">
-        <v>1.53339054137659</v>
+        <v>1.34277144992808</v>
       </c>
       <c r="G15">
-        <v>0.002443429813699444</v>
+        <v>0.0007709130470793269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2117771394248251</v>
+        <v>0.3027962783504279</v>
       </c>
       <c r="K15">
-        <v>2.107646432268439</v>
+        <v>5.923851112934699</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.175155704249917</v>
+        <v>0.7754111538253312</v>
       </c>
       <c r="O15">
-        <v>3.681253059065767</v>
+        <v>2.988446489318193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07025456120760509</v>
+        <v>0.2213018137729676</v>
       </c>
       <c r="D16">
-        <v>0.1978227774235108</v>
+        <v>0.2480210660766602</v>
       </c>
       <c r="E16">
-        <v>0.1798598620487226</v>
+        <v>0.2373671863734614</v>
       </c>
       <c r="F16">
-        <v>1.525736844387524</v>
+        <v>1.275709611827949</v>
       </c>
       <c r="G16">
-        <v>0.002445524255232034</v>
+        <v>0.000774431188387718</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2079564095442379</v>
+        <v>0.2843057445759882</v>
       </c>
       <c r="K16">
-        <v>1.997906681192376</v>
+        <v>5.541786159725405</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.177601484469392</v>
+        <v>0.7771423744381707</v>
       </c>
       <c r="O16">
-        <v>3.670719040228306</v>
+        <v>2.846539182768709</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06761982339615713</v>
+        <v>0.2115693714058011</v>
       </c>
       <c r="D17">
-        <v>0.1955148045728521</v>
+        <v>0.2385339210457573</v>
       </c>
       <c r="E17">
-        <v>0.1778248676842296</v>
+        <v>0.228154290902232</v>
       </c>
       <c r="F17">
-        <v>1.521302146859981</v>
+        <v>1.235543193248674</v>
       </c>
       <c r="G17">
-        <v>0.002446837749477178</v>
+        <v>0.0007766092022378768</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2056434185740983</v>
+        <v>0.2731094004334267</v>
       </c>
       <c r="K17">
-        <v>1.9306132805022</v>
+        <v>5.30829733486047</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.179230601369113</v>
+        <v>0.7785904504189887</v>
       </c>
       <c r="O17">
-        <v>3.664936364282852</v>
+        <v>2.762067343551251</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06610608161648202</v>
+        <v>0.2059981373437125</v>
       </c>
       <c r="D18">
-        <v>0.1941935521841174</v>
+        <v>0.2330984298176588</v>
       </c>
       <c r="E18">
-        <v>0.1766624700003518</v>
+        <v>0.2228878172875923</v>
       </c>
       <c r="F18">
-        <v>1.518847067690714</v>
+        <v>1.212780058690896</v>
       </c>
       <c r="G18">
-        <v>0.002447603780085514</v>
+        <v>0.0007778694755032796</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2043243920676474</v>
+        <v>0.266720386295745</v>
       </c>
       <c r="K18">
-        <v>1.891918914404073</v>
+        <v>5.174301558601826</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.180214964715461</v>
+        <v>0.7795604684193762</v>
       </c>
       <c r="O18">
-        <v>3.66185962671193</v>
+        <v>2.714382569770379</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06559384403955448</v>
+        <v>0.204116196577715</v>
       </c>
       <c r="D19">
-        <v>0.1937472718150985</v>
+        <v>0.2312615937839837</v>
       </c>
       <c r="E19">
-        <v>0.1762702899641013</v>
+        <v>0.2211100817099307</v>
       </c>
       <c r="F19">
-        <v>1.518032234560494</v>
+        <v>1.205129479776048</v>
       </c>
       <c r="G19">
-        <v>0.002447864958307844</v>
+        <v>0.0007782975026974173</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2038797396832308</v>
+        <v>0.2645656121138273</v>
       </c>
       <c r="K19">
-        <v>1.87881961516041</v>
+        <v>5.128981960395208</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.180556387335116</v>
+        <v>0.7799120145656104</v>
       </c>
       <c r="O19">
-        <v>3.660860672212749</v>
+        <v>2.69838766774086</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06790012065762596</v>
+        <v>0.2126026077706484</v>
       </c>
       <c r="D20">
-        <v>0.1957598477823552</v>
+        <v>0.2395416133614958</v>
       </c>
       <c r="E20">
-        <v>0.1780406604795814</v>
+        <v>0.2291316067611859</v>
       </c>
       <c r="F20">
-        <v>1.521764326570931</v>
+        <v>1.239783433003367</v>
       </c>
       <c r="G20">
-        <v>0.002446696835154287</v>
+        <v>0.0007763765750196354</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2058884660050921</v>
+        <v>0.2742959396665583</v>
       </c>
       <c r="K20">
-        <v>1.937775650824733</v>
+        <v>5.33312086225834</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.179052280614442</v>
+        <v>0.778422004013251</v>
       </c>
       <c r="O20">
-        <v>3.665526127819049</v>
+        <v>2.770965181120033</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07566914407074421</v>
+        <v>0.2414480364562479</v>
       </c>
       <c r="D21">
-        <v>0.2025961051295013</v>
+        <v>0.2676249297624338</v>
       </c>
       <c r="E21">
-        <v>0.1840853264149587</v>
+        <v>0.2564859694057802</v>
       </c>
       <c r="F21">
-        <v>1.53544724587411</v>
+        <v>1.360402059208056</v>
       </c>
       <c r="G21">
-        <v>0.002442897898260874</v>
+        <v>0.0007700106017501063</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2127731406376228</v>
+        <v>0.3076183141479589</v>
       </c>
       <c r="K21">
-        <v>2.135987375453908</v>
+        <v>6.022793622299162</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.174564013750171</v>
+        <v>0.7750875232672314</v>
       </c>
       <c r="O21">
-        <v>3.684183207271701</v>
+        <v>3.025923695850082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08076188229091485</v>
+        <v>0.2605816360535158</v>
       </c>
       <c r="D22">
-        <v>0.2071189272864729</v>
+        <v>0.2861979703331485</v>
       </c>
       <c r="E22">
-        <v>0.1881076651864007</v>
+        <v>0.2746980161232173</v>
       </c>
       <c r="F22">
-        <v>1.545244208908599</v>
+        <v>1.442659227218371</v>
       </c>
       <c r="G22">
-        <v>0.002440508430271089</v>
+        <v>0.0007659110639435556</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2173739537052626</v>
+        <v>0.329919110435938</v>
       </c>
       <c r="K22">
-        <v>2.265615850196582</v>
+        <v>6.47683571620297</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.172051427655035</v>
+        <v>0.7742330646263298</v>
       </c>
       <c r="O22">
-        <v>3.698606231249073</v>
+        <v>3.201637991201267</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07804238934011209</v>
+        <v>0.2503416545770705</v>
       </c>
       <c r="D23">
-        <v>0.2047000130121432</v>
+        <v>0.2762636419627853</v>
       </c>
       <c r="E23">
-        <v>0.1859543036475273</v>
+        <v>0.2649450289137718</v>
       </c>
       <c r="F23">
-        <v>1.539937077661065</v>
+        <v>1.398423013517316</v>
       </c>
       <c r="G23">
-        <v>0.002441775217948511</v>
+        <v>0.0007680937951302083</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2149091335379865</v>
+        <v>0.317965347298454</v>
       </c>
       <c r="K23">
-        <v>2.196423457229344</v>
+        <v>6.234170990291716</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.173353979545382</v>
+        <v>0.7745626052632275</v>
       </c>
       <c r="O23">
-        <v>3.690703926790434</v>
+        <v>3.106970692281124</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06777339514232494</v>
+        <v>0.2121354070951611</v>
       </c>
       <c r="D24">
-        <v>0.1956490461991507</v>
+        <v>0.2390859774420022</v>
       </c>
       <c r="E24">
-        <v>0.1779430770464501</v>
+        <v>0.2286896688528373</v>
       </c>
       <c r="F24">
-        <v>1.521555080824044</v>
+        <v>1.237865399941569</v>
       </c>
       <c r="G24">
-        <v>0.002446760508549294</v>
+        <v>0.0007764817204840785</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2057776466036358</v>
+        <v>0.2737593567927235</v>
       </c>
       <c r="K24">
-        <v>1.93453756329103</v>
+        <v>5.321897404461936</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.179132750635944</v>
+        <v>0.7784977314693009</v>
       </c>
       <c r="O24">
-        <v>3.665258723925149</v>
+        <v>2.76693974158718</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0567610695408689</v>
+        <v>0.1719194554873411</v>
       </c>
       <c r="D25">
-        <v>0.1861246953917686</v>
+        <v>0.1997824282331635</v>
       </c>
       <c r="E25">
-        <v>0.1696105209711476</v>
+        <v>0.1908049419881266</v>
       </c>
       <c r="F25">
-        <v>1.505381957283248</v>
+        <v>1.077464850973598</v>
       </c>
       <c r="G25">
-        <v>0.002452541391114899</v>
+        <v>0.0007858206349427429</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1963613961133603</v>
+        <v>0.2279855854047526</v>
       </c>
       <c r="K25">
-        <v>1.652478913770153</v>
+        <v>4.349065990870542</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.187176464855128</v>
+        <v>0.7879345126914359</v>
       </c>
       <c r="O25">
-        <v>3.647337488133275</v>
+        <v>2.434106019458341</v>
       </c>
     </row>
   </sheetData>
